--- a/Survey/Evaluación Rebel (Respuestas).xlsx
+++ b/Survey/Evaluación Rebel (Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borisperezg/eclipsews/Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62925F4A-62C6-A144-8D05-4470B77626C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBACF2-9512-B545-AB0A-C045B6CA12D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="23920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -830,6 +830,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,9 +1056,9 @@
   </sheetPr>
   <dimension ref="A1:BW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1470,179 +1476,179 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:75" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    <row r="3" spans="1:75" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>44298.300505648149</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="3">
-        <v>4</v>
-      </c>
-      <c r="R3" s="3">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="Q3" s="8">
+        <v>4</v>
+      </c>
+      <c r="R3" s="8">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8">
         <v>1</v>
       </c>
-      <c r="T3" s="3">
-        <v>4</v>
-      </c>
-      <c r="U3" s="3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3">
-        <v>5</v>
-      </c>
-      <c r="W3" s="3">
+      <c r="T3" s="8">
+        <v>4</v>
+      </c>
+      <c r="U3" s="8">
+        <v>4</v>
+      </c>
+      <c r="V3" s="8">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8">
         <v>1</v>
       </c>
-      <c r="X3" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="X3" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AP3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD3" s="3" t="s">
+      <c r="AX3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BF3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BQ3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BQ3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV3" s="8" t="s">
         <v>110</v>
       </c>
     </row>
